--- a/EncodedData.xlsx
+++ b/EncodedData.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
   <si>
-    <t xml:space="preserve">Designation </t>
+    <t>Designation</t>
   </si>
   <si>
-    <t xml:space="preserve">Age </t>
+    <t>Age</t>
   </si>
   <si>
     <t>Gender</t>
@@ -79,115 +79,28 @@
     <t>Family Time</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intern </t>
+    <t>Intern</t>
   </si>
   <si>
     <t>Junior Software Engineer</t>
   </si>
   <si>
-    <t>Intern</t>
-  </si>
-  <si>
     <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Software Engineer I</t>
-  </si>
-  <si>
-    <t>intern</t>
-  </si>
-  <si>
-    <t>Software engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student </t>
-  </si>
-  <si>
-    <t>Full Stack Engineer (Senior)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head of Engineering </t>
   </si>
   <si>
     <t>Senior Software Engineer</t>
   </si>
   <si>
-    <t>Currently Unemployed</t>
-  </si>
-  <si>
-    <t>Jr. Software Engineer</t>
-  </si>
-  <si>
-    <t>Studemt</t>
-  </si>
-  <si>
-    <t>Associate Software Engineer</t>
-  </si>
-  <si>
-    <t>Associate Software Quality Assurance Engineer</t>
+    <t>Tech Lead</t>
   </si>
   <si>
     <t xml:space="preserve">Admin executive </t>
   </si>
   <si>
-    <t>Tech Lead</t>
-  </si>
-  <si>
     <t>Lecturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Unemployed </t>
-  </si>
-  <si>
-    <t>Full Stack Developer</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Engineer </t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Analyst </t>
-  </si>
-  <si>
-    <t>Associate Game Developer</t>
-  </si>
-  <si>
-    <t>bsse0921@iit.du.ac.bd</t>
-  </si>
-  <si>
-    <t>Software developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software engineer </t>
-  </si>
-  <si>
-    <t>Junior full stack software developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junior Software Engineer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jr software engineer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senior Software Engineer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineering </t>
-  </si>
-  <si>
-    <t>Junior software engineer</t>
-  </si>
-  <si>
-    <t>Trainee Assistant Officer</t>
   </si>
   <si>
     <t>24+</t>
@@ -692,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -825,7 +738,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -893,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -961,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>26</v>
@@ -1029,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -1097,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -1165,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>23</v>
@@ -1233,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>24</v>
@@ -1301,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>24</v>
@@ -1369,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -1437,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -1505,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>24</v>
@@ -1573,7 +1486,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>23</v>
@@ -1641,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>26</v>
@@ -1709,7 +1622,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>23</v>
@@ -1777,7 +1690,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>26</v>
@@ -1845,7 +1758,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>29</v>
@@ -1981,7 +1894,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -2049,7 +1962,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -2117,7 +2030,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -2185,7 +2098,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -2253,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -2321,7 +2234,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>30</v>
@@ -2389,7 +2302,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>24</v>
@@ -2457,7 +2370,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2525,7 +2438,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>23</v>
@@ -2593,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>24</v>
@@ -2661,7 +2574,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>29</v>
@@ -2729,7 +2642,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>28</v>
@@ -2797,7 +2710,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>21</v>
@@ -2865,7 +2778,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -2933,7 +2846,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>25</v>
@@ -3001,7 +2914,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>23</v>
@@ -3069,7 +2982,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>43</v>
@@ -3137,7 +3050,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>24</v>
@@ -3205,7 +3118,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>26</v>
@@ -3273,7 +3186,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -3341,7 +3254,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>25</v>
@@ -3409,7 +3322,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C43">
         <v>31</v>
@@ -3477,7 +3390,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>22</v>
@@ -3545,7 +3458,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>23</v>
@@ -3613,7 +3526,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>24</v>
@@ -3681,7 +3594,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>24</v>
@@ -3749,7 +3662,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>23</v>
@@ -3817,7 +3730,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>24</v>
@@ -3953,7 +3866,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>23</v>
@@ -4021,7 +3934,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>23</v>
@@ -4157,7 +4070,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>24</v>
@@ -4293,7 +4206,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>23</v>
@@ -4361,7 +4274,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>24</v>
@@ -4429,7 +4342,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>24</v>
@@ -4565,7 +4478,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>26</v>
@@ -4633,7 +4546,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>23</v>
@@ -4701,7 +4614,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>24</v>
@@ -4837,7 +4750,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>24</v>
@@ -4905,7 +4818,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>22</v>
@@ -4973,7 +4886,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>24</v>
@@ -5041,7 +4954,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C67">
         <v>23</v>
@@ -5109,7 +5022,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C68">
         <v>24</v>
@@ -5177,10 +5090,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5245,7 +5158,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C70">
         <v>23</v>
@@ -5313,7 +5226,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C71">
         <v>25</v>
@@ -5381,7 +5294,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <v>22</v>
@@ -5449,7 +5362,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C73">
         <v>24</v>
@@ -5517,7 +5430,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>22</v>
@@ -5585,7 +5498,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C75">
         <v>23</v>
@@ -5721,7 +5634,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C77">
         <v>27</v>
@@ -5789,7 +5702,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C78">
         <v>24</v>
@@ -5857,7 +5770,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C79">
         <v>33</v>
@@ -5925,7 +5838,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>26</v>
@@ -5993,7 +5906,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>23</v>
@@ -6061,7 +5974,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>24</v>
@@ -6129,7 +6042,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C83">
         <v>24</v>
@@ -6265,7 +6178,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C85">
         <v>27</v>
@@ -6333,7 +6246,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86">
         <v>23</v>
@@ -6401,7 +6314,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C87">
         <v>23</v>
@@ -6469,7 +6382,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C88">
         <v>26</v>
@@ -6537,7 +6450,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C89">
         <v>28</v>
@@ -6673,7 +6586,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C91">
         <v>23</v>
